--- a/static/excel/Activewear_Upload.xlsx
+++ b/static/excel/Activewear_Upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afork\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622BA2B2-295A-4765-91EC-56CD09540389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D53E4EB-7F61-4FD9-A17E-F41C9F275E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -58,73 +58,85 @@
     <t>Attribute2Value</t>
   </si>
   <si>
+    <t>dsc-calirpfltcp-blk/wht</t>
+  </si>
+  <si>
+    <t>California Republic Flag Flat Bill Snapback Mesh Truckers Cap - One size fits most / Black/White</t>
+  </si>
+  <si>
+    <t>Decky 2 Tone Flat Bill - 224</t>
+  </si>
+  <si>
     <t>Activewear SKU</t>
   </si>
   <si>
     <t>Activewear SkuID</t>
   </si>
   <si>
-    <t>140524199</t>
-  </si>
-  <si>
-    <t>dsc-DonCRBFlgCRW-red-sm</t>
-  </si>
-  <si>
-    <t>California Republic Bear Flag Crewneck Sweatshirt - Red Small</t>
-  </si>
-  <si>
-    <t>Crewneck - 562MR</t>
-  </si>
-  <si>
-    <t>B21035703</t>
-  </si>
-  <si>
-    <t>39603</t>
-  </si>
-  <si>
-    <t>140524210</t>
-  </si>
-  <si>
-    <t>dsc-DonCRBFlgTNK-sprtgryxxl</t>
-  </si>
-  <si>
-    <t>California Republic Bear Flag Tank Top - Sport Grey XX-Large</t>
-  </si>
-  <si>
-    <t>Tanktop - Gildan Ultracotton - 2200</t>
-  </si>
-  <si>
-    <t>B09860587</t>
-  </si>
-  <si>
-    <t>7699</t>
-  </si>
-  <si>
-    <t>140524215</t>
-  </si>
-  <si>
-    <t>dsc-athstht-drkblu-smmd</t>
-  </si>
-  <si>
-    <t>Atheist Offset Symbol Curved Bill Baseball Hat Flexfit-Dark Grey SM/MD</t>
-  </si>
-  <si>
-    <t>Hat - Flexfit - Curvebill - 6277</t>
-  </si>
-  <si>
-    <t>dsc-OctheattrnsfrLS-ryllrg</t>
-  </si>
-  <si>
-    <t>Octopus Long Sleeve Shirt - Large / Royal</t>
-  </si>
-  <si>
-    <t>T-Shirts - Longsleeve - 2400</t>
-  </si>
-  <si>
-    <t>B06060755</t>
-  </si>
-  <si>
-    <t>5167</t>
+    <t>dsc-caliorg-fb-blk</t>
+  </si>
+  <si>
+    <t>California Republic Original State Flag Snapback Hat On Black - Flat Bill - One size fits most / Black/White</t>
+  </si>
+  <si>
+    <t>Decky Solid Flat Bill - 223</t>
+  </si>
+  <si>
+    <t>dsc-trkrcp-blk/wht</t>
+  </si>
+  <si>
+    <t>California State Flag Snapback Mesh Truckers Cap - One size fits most / Black/White</t>
+  </si>
+  <si>
+    <t>Valucap Curve Bill - VC700</t>
+  </si>
+  <si>
+    <t>140524165</t>
+  </si>
+  <si>
+    <t>dsc-calilvcp-nvy/wht</t>
+  </si>
+  <si>
+    <t>California Love Flag Flat Bill Snapback Mesh Truckers Cap - Navy/White One Size Fits Most</t>
+  </si>
+  <si>
+    <t>Mega Cap Flat Bill - 6875</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>Independent Zip-Up - AFX90UNZ</t>
+  </si>
+  <si>
+    <t>dsc-brdlssZU-blklrg</t>
+  </si>
+  <si>
+    <t>California State Flag Borderless Zip-Up Hoodie - Large / Black</t>
+  </si>
+  <si>
+    <t>B81076505</t>
+  </si>
+  <si>
+    <t>44299</t>
+  </si>
+  <si>
+    <t>dsc-CaChmshMndFllClrZU-chhthmed</t>
+  </si>
+  <si>
+    <t>California Chumash Mandala Bear Zip-Up Hoodie - Medium / Charcoal Heather</t>
+  </si>
+  <si>
+    <t>B81076094</t>
+  </si>
+  <si>
+    <t>44305</t>
+  </si>
+  <si>
+    <t>dsc-carepwllt</t>
+  </si>
+  <si>
+    <t>California Republic Bear Flag Trifold Velcro Wallet - 4-1/2" W x 9-3/4" H / Black</t>
   </si>
 </sst>
 </file>
@@ -488,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,160 +548,259 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>19896613</v>
+        <v>19896305</v>
       </c>
       <c r="C2">
         <v>32001378</v>
       </c>
       <c r="D2">
-        <v>17917789</v>
+        <v>17917519</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>19896622</v>
+        <v>19896306</v>
       </c>
       <c r="C3">
         <v>32001378</v>
       </c>
       <c r="D3">
-        <v>17917798</v>
+        <v>17917519</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>19896627</v>
+        <v>19896319</v>
       </c>
       <c r="C4">
         <v>32001378</v>
       </c>
       <c r="D4">
-        <v>17917802</v>
+        <v>17917531</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>19896806</v>
+        <v>19896579</v>
       </c>
       <c r="C5">
         <v>32001378</v>
       </c>
       <c r="D5">
-        <v>17917967</v>
+        <v>17917758</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>19896902</v>
+      </c>
+      <c r="C6">
+        <v>32001378</v>
+      </c>
+      <c r="D6">
+        <v>17918051</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>19896903</v>
+      </c>
+      <c r="C7">
+        <v>32001378</v>
+      </c>
+      <c r="D7">
+        <v>17918051</v>
+      </c>
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="L5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
         <v>34</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>19896908</v>
+      </c>
+      <c r="C8">
+        <v>32001378</v>
+      </c>
+      <c r="D8">
+        <v>17918056</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
